--- a/data/publications/orcid/export_to_manual/Katolicki_Uniwersytet_Lubelski_Jana_Pawła_II_w_Lublinie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Katolicki_Uniwersytet_Lubelski_Jana_Pawła_II_w_Lublinie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1100 +436,1192 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Rafał Piotr Bartczuk</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0433-7327</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Analiza strukturalna zasobów u osób zagrożonych marginalizacją społeczną – Kwestionariusz Zachowania Zasobów Hobfolla</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Rafał_Piotr_Bartczuk_13</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Rafał Piotr Bartczuk</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0433-7327</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Psychometric validation of the Adolescence Deconversion Scale</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rafał_Piotr_Bartczuk_15</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Rafał Piotr Bartczuk</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0433-7327</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Structural analysis of resources  in those at risk of social marginalization – Hobfoll’s Conservation of Resources Evaluation</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rafał_Piotr_Bartczuk_16</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Rafał Piotr Bartczuk</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0433-7327</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Walidacja psychometryczna Skali Dekonwersji Młodzieży</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rafał_Piotr_Bartczuk_17</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rafał Piotr Bartczuk</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0433-7327</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Tożsamość religijna a gotowość do wejścia w dialog międzyreligijny</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Przegląd Religioznawczy</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rafał_Piotr_Bartczuk_22</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Wacław Jan Bąk</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8629-6292</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Emocjonalne konsekwencje rozbieżności w systemie Ja - moderująca rola poczucia humoru</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Przegląd Naukowo-Metodyczny Edukacja dla bezpieczeństwa</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wacław_Jan_Bąk_7</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>102</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bernadeta Lelonek-Kuleta</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7844-3667</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Robert ladouceur's cognitive-behavioural conception of therapy for pathological gamblers</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bernadeta_Lelonek-Kuleta_11</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>133</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Temperament, parenting styles and the intensity of early maladaptive schemas: assessment of correlations in a non-clinical adult group</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Behavioural and Cognitive Psychotherapy</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dorota_Mącik_1</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>137</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Mediating role of neuroticism between early maladaptive schemas and negative emotionality</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dorota_Mącik_5</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>138</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Związek mechanizmów obronnych z wczesnymi nieadaptacyjnymi schematami poznawczymi i cechami zaburzonej osobowości</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Dorota_Mącik_6</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>140</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Early maladaptive schemas, parental attitudes and temperament, and the evolution of borderline and avoidant personality features--the search for interdependencies</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Psychiatria i Psychologia Kliniczna</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Dorota_Mącik_8</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>142</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Polska adaptacja i walidacja krótkiej wersji Kwestionariusza Schematów Younga (YSQ-S3-PL)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Psychiatria Polska</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Dorota_Mącik_10</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>143</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Rodzaj samoregulacji w zależnósci od płci i temperamentu u osób we wczesnej dorosłósci</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Annales Universitatis Mariae Curie-Skłodowska, sectio J--Paedagogia-Psychologia</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Dorota_Mącik_11</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>144</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Rola postaw rodzicielskich w kształtowaniu wczesnych nieadaptacyjnych schematów. Badania populacji nieklinicznej</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Dorota_Mącik_12</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>145</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Różnice w ocenie funkcjonowania relacji romantycznej i wczesnych nieadaptacyjnych schematów Younga pomiędzy matkami i córkami</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Annales Universitatis Mariae Curie-Skłodowska, sectio J--Paedagogia-Psychologia</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Dorota_Mącik_13</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>146</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>W PUŁAPCE SCHEMATÓW?</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Dorota_Mącik_14</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>147</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Związki wczesnych nieadaptacyjnych schematów z poczuciem sensu życia i dobrostanem psychicznym</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Annales Universitatis Mariae Curie-Skłodowska, sectio J--Paedagogia-Psychologia</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Dorota_Mącik_15</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>148</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Effectiveness of Theory of Mind therapy carried out by parents of children with autism--a preliminary study</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Studia Psychologica: Theoria et praxis</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Dorota_Mącik_16</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>149</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Polish adaptation of the Young Schema Questionnaire 3 Short Form (YSQ-S3-PL)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Psychiatria Polska</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Dorota_Mącik_17</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>150</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Symptoms of mental health disorders and early maladaptive schemas - Assessment of dependencies,Symptomy zaburzeń zdrowia psychicznego a wczesne nieadaptacyjne schematy - ocena zalezności</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Dorota_Mącik_18</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>151</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Symptoms of mental health disorders and erly maladaptive schhemas-assessment of dependencies</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Dorota_Mącik_19</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>152</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Dorota Mącik</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5015-1059</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Wczesne nieadaptacyjne schematy i motywacja osiągnięć a poczucie nasilenia stresu u kobiet i mężczyzn</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Studia Psychologica: Theoria et praxis</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Dorota_Mącik_20</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>164</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Martyna Maria Płudowska</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6246-9152</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Existential anxiety and self-esteem as mediators of the relationship between materialismand life satisfaction</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>The Review of Psychology. Official Journal of the Polish Psychological Association</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Martyna_Maria_Płudowska_3</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>167</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Martyna Maria Płudowska</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6246-9152</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t xml:space="preserve">Contemporary trends in giftedness research and support of gifted students </t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2018-12-17</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Martyna_Maria_Płudowska_6</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>168</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Martyna Maria Płudowska</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6246-9152</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t xml:space="preserve">Psychological predictors of perception of quality of life in materialistically-oriented individuals </t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2017-09-30</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Martyna_Maria_Płudowska_7</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>213</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Małgorzata Tatala</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7073-8014</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Psychological aspects of religious morality in middle and late adulthood</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2021-12-30</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>QUARTERLY JOURNAL FIDES ET RATIO</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Małgorzata_Tatala_2</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>218</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Małgorzata Tatala</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7073-8014</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Development of prayer in children</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Horyzonty Psychologii</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Małgorzata_Tatala_7</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>219</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Małgorzata Tatala</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7073-8014</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Przestrzeń semantyczna symbolu krzyża i Biblii u młodzieży</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Horyzonty Psychologii</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Małgorzata_Tatala_8</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>259</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Beata Ewa Zarzycka</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3004-4357</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>NARCISSISM AND PSYCHOLOGICAL ENTITLEMENT AS PREDICTORS OF RELIGIOUS AND SPIRITUAL STRUGGLE: THE MEDIATING EFFECT OF RELIGIOUS ATTRIBUTIONS</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Ceskoslovenska Psychologie</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Beata_Ewa_Zarzycka_11</t>
         </is>

--- a/data/publications/orcid/export_to_manual/Katolicki_Uniwersytet_Lubelski_Jana_Pawła_II_w_Lublinie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Katolicki_Uniwersytet_Lubelski_Jana_Pawła_II_w_Lublinie_titles.xlsx
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Beata_Ewa_Zarzycka_11</t>
+          <t>Beata_Ewa_Zarzycka_34</t>
         </is>
       </c>
     </row>
